--- a/zeitplan_uek335.xlsx
+++ b/zeitplan_uek335.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\OneDrive\Dokumente\GitHub\uek335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4092C37-D527-49F8-BCAD-723748BA0F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA96927-C407-4EFB-AEB0-3DFECD059F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
   <si>
     <t>zeitplan</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>projekt abgabe end version</t>
+  </si>
+  <si>
+    <t>Author: Dominic Streit</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,66 +691,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,19 +731,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,23 +750,14 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,35 +832,74 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1736,114 +1735,121 @@
   <dimension ref="A1:BG76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="6" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6" style="7" customWidth="1"/>
     <col min="4" max="59" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:59" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="6">
+      <c r="D4" s="82">
         <v>45068</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="82">
         <v>45069</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="82">
         <v>45070</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="6">
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="82">
         <v>45071</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="7">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="83">
         <v>45072</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="6">
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="82">
         <v>45073</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="6">
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="82">
         <v>45074</v>
       </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="6">
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="82">
         <v>45075</v>
       </c>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="7">
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="83">
         <v>45076</v>
       </c>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="6">
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="82">
         <v>45077</v>
       </c>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="6">
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="82">
         <v>45078</v>
       </c>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="48">
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="85">
         <v>45079</v>
       </c>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
     </row>
     <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -1978,7 +1984,7 @@
       <c r="AU5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="51" t="s">
+      <c r="AV5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="AW5" s="2" t="s">
@@ -1987,3052 +1993,3052 @@
       <c r="AX5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AY5" s="52" t="s">
+      <c r="AY5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
-    </row>
-    <row r="6" spans="1:59" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="41"/>
-      <c r="BF6" s="41"/>
-      <c r="BG6" s="41"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+    </row>
+    <row r="6" spans="1:59" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="29"/>
+      <c r="BC6" s="29"/>
+      <c r="BD6" s="29"/>
+      <c r="BE6" s="29"/>
+      <c r="BF6" s="29"/>
+      <c r="BG6" s="29"/>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="75">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="60">
         <v>2</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="33"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="26" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="30"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="78" t="s">
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="79"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="42"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="42"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="83" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="33"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="29"/>
-      <c r="AS8" s="30"/>
-      <c r="AT8" s="30"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="47"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="23"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="30"/>
+      <c r="BG8" s="30"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="77" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="62"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="47"/>
-      <c r="BA9" s="42"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="23" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="76" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="65"/>
-      <c r="K10" s="63"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="47"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="50"/>
+      <c r="K10" s="48"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="31" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="29"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="42"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="19"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="30"/>
+      <c r="BF11" s="30"/>
+      <c r="BG11" s="30"/>
     </row>
     <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="29"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="19"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
     </row>
     <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="31">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="21">
         <v>4</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="30"/>
+      <c r="BF13" s="30"/>
+      <c r="BG13" s="30"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="23" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="34"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="79"/>
-      <c r="AZ14" s="47"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-    </row>
-    <row r="15" spans="1:59" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="36"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="35"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="35"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="79"/>
-      <c r="AZ15" s="47"/>
-      <c r="BA15" s="42"/>
-      <c r="BB15" s="42"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="30"/>
+    </row>
+    <row r="15" spans="1:59" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="35"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="30"/>
+      <c r="BC15" s="30"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="30"/>
+      <c r="BF15" s="30"/>
+      <c r="BG15" s="30"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="71">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="56">
         <v>4</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="22">
         <v>4</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="33"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="29"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="79"/>
-      <c r="AZ16" s="47"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="23"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
     </row>
     <row r="17" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="23" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="79"/>
-      <c r="AZ17" s="47"/>
-      <c r="BA17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="42"/>
-      <c r="BF17" s="42"/>
-      <c r="BG17" s="42"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="30"/>
+      <c r="BC17" s="30"/>
+      <c r="BD17" s="30"/>
+      <c r="BE17" s="30"/>
+      <c r="BF17" s="30"/>
+      <c r="BG17" s="30"/>
     </row>
     <row r="18" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="72" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="73" t="s">
+      <c r="M18" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="79"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="35"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
     </row>
     <row r="19" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="81"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="79"/>
-      <c r="AZ19" s="47"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="71"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="30"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="30"/>
     </row>
     <row r="20" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="71" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="71" t="s">
+      <c r="N20" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="79"/>
-      <c r="AZ20" s="47"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="23" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="79"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="42"/>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="42"/>
-      <c r="BG21" s="42"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="71"/>
+      <c r="AW21" s="71"/>
+      <c r="AX21" s="71"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="35"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="30"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
     </row>
     <row r="22" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="71" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="22">
         <v>4</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="79"/>
-      <c r="AZ22" s="47"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="71"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="35"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="30"/>
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
     </row>
     <row r="23" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="23" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="78"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="47"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="71"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="30"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
     </row>
     <row r="24" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="31">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="21">
         <v>4</v>
       </c>
-      <c r="Q24" s="71">
+      <c r="Q24" s="56">
         <v>4</v>
       </c>
-      <c r="R24" s="31">
+      <c r="R24" s="21">
         <v>4</v>
       </c>
-      <c r="S24" s="56"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="78"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="79"/>
-      <c r="AZ24" s="47"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
+      <c r="S24" s="41"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="23"/>
+      <c r="AV24" s="71"/>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="71"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="23" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="81"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="29"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="47"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="64"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="80"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="71"/>
+      <c r="AW25" s="71"/>
+      <c r="AX25" s="71"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="35"/>
+      <c r="BA25" s="30"/>
+      <c r="BB25" s="30"/>
+      <c r="BC25" s="30"/>
+      <c r="BD25" s="30"/>
+      <c r="BE25" s="30"/>
+      <c r="BF25" s="30"/>
+      <c r="BG25" s="30"/>
     </row>
     <row r="26" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="70">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="55">
         <v>4</v>
       </c>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="29"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="78"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="78"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="47"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="71"/>
+      <c r="AW26" s="71"/>
+      <c r="AX26" s="71"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="35"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
     </row>
     <row r="27" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="23" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="47"/>
-      <c r="BA27" s="42"/>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-    </row>
-    <row r="28" spans="1:59" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="47"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="23"/>
+      <c r="AV27" s="71"/>
+      <c r="AW27" s="71"/>
+      <c r="AX27" s="71"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="35"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="30"/>
+      <c r="BC27" s="30"/>
+      <c r="BD27" s="30"/>
+      <c r="BE27" s="30"/>
+      <c r="BF27" s="30"/>
+      <c r="BG27" s="30"/>
+    </row>
+    <row r="28" spans="1:59" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="71"/>
+      <c r="AW28" s="71"/>
+      <c r="AX28" s="71"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="35"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="30"/>
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
     </row>
     <row r="29" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="60" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="31" t="s">
+      <c r="U29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="73" t="s">
+      <c r="V29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="W29" s="70" t="s">
+      <c r="W29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="60" t="s">
+      <c r="X29" s="78"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AG29" s="31" t="s">
+      <c r="AG29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AH29" s="73" t="s">
+      <c r="AH29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AI29" s="70" t="s">
+      <c r="AI29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AJ29" s="60" t="s">
+      <c r="AJ29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AK29" s="31" t="s">
+      <c r="AK29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AL29" s="73" t="s">
+      <c r="AL29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AM29" s="70" t="s">
+      <c r="AM29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AN29" s="60" t="s">
+      <c r="AN29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AO29" s="31" t="s">
+      <c r="AO29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AP29" s="73" t="s">
+      <c r="AP29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AQ29" s="70" t="s">
+      <c r="AQ29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AR29" s="60" t="s">
+      <c r="AR29" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AS29" s="31" t="s">
+      <c r="AS29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="78"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="78"/>
-      <c r="AY29" s="79"/>
-      <c r="AZ29" s="47"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="23"/>
+      <c r="AV29" s="71"/>
+      <c r="AW29" s="71"/>
+      <c r="AX29" s="71"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="35"/>
+      <c r="BA29" s="30"/>
+      <c r="BB29" s="30"/>
+      <c r="BC29" s="30"/>
+      <c r="BD29" s="30"/>
+      <c r="BE29" s="30"/>
+      <c r="BF29" s="30"/>
+      <c r="BG29" s="30"/>
     </row>
     <row r="30" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="23" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="29"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="47"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="23"/>
+      <c r="AV30" s="71"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="71"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="35"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="30"/>
+      <c r="BC30" s="30"/>
+      <c r="BD30" s="30"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="30"/>
+      <c r="BG30" s="30"/>
     </row>
     <row r="31" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="81"/>
+      <c r="B31" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="82" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="31" t="s">
+      <c r="U31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="V31" s="71" t="s">
+      <c r="V31" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="W31" s="31" t="s">
+      <c r="W31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="82" t="s">
+      <c r="X31" s="78"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="80"/>
+      <c r="AF31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AG31" s="31" t="s">
+      <c r="AG31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AH31" s="71" t="s">
+      <c r="AH31" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AI31" s="31" t="s">
+      <c r="AI31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AJ31" s="82" t="s">
+      <c r="AJ31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AK31" s="31" t="s">
+      <c r="AK31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AL31" s="71" t="s">
+      <c r="AL31" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AM31" s="31" t="s">
+      <c r="AM31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AN31" s="82" t="s">
+      <c r="AN31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AO31" s="31" t="s">
+      <c r="AO31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AP31" s="71" t="s">
+      <c r="AP31" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AQ31" s="31" t="s">
+      <c r="AQ31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AR31" s="82" t="s">
+      <c r="AR31" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AS31" s="31" t="s">
+      <c r="AS31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="78"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="78"/>
-      <c r="AY31" s="79"/>
-      <c r="AZ31" s="47"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
+      <c r="AT31" s="20"/>
+      <c r="AU31" s="23"/>
+      <c r="AV31" s="71"/>
+      <c r="AW31" s="71"/>
+      <c r="AX31" s="71"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="35"/>
+      <c r="BA31" s="30"/>
+      <c r="BB31" s="30"/>
+      <c r="BC31" s="30"/>
+      <c r="BD31" s="30"/>
+      <c r="BE31" s="30"/>
+      <c r="BF31" s="30"/>
+      <c r="BG31" s="30"/>
     </row>
     <row r="32" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="23" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="29"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="78"/>
-      <c r="AW32" s="78"/>
-      <c r="AX32" s="78"/>
-      <c r="AY32" s="79"/>
-      <c r="AZ32" s="47"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="80"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="20"/>
+      <c r="AT32" s="20"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="71"/>
+      <c r="AW32" s="71"/>
+      <c r="AX32" s="71"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="35"/>
+      <c r="BA32" s="30"/>
+      <c r="BB32" s="30"/>
+      <c r="BC32" s="30"/>
+      <c r="BD32" s="30"/>
+      <c r="BE32" s="30"/>
+      <c r="BF32" s="30"/>
+      <c r="BG32" s="30"/>
     </row>
     <row r="33" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="39" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="71" t="s">
+      <c r="U33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="V33" s="75" t="s">
+      <c r="V33" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="W33" s="31" t="s">
+      <c r="W33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="39" t="s">
+      <c r="X33" s="78"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="80"/>
+      <c r="AF33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AG33" s="71" t="s">
+      <c r="AG33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AH33" s="75" t="s">
+      <c r="AH33" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AI33" s="31" t="s">
+      <c r="AI33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AJ33" s="39" t="s">
+      <c r="AJ33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AK33" s="71" t="s">
+      <c r="AK33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AL33" s="75" t="s">
+      <c r="AL33" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AM33" s="31" t="s">
+      <c r="AM33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AN33" s="39" t="s">
+      <c r="AN33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AO33" s="71" t="s">
+      <c r="AO33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AP33" s="75" t="s">
+      <c r="AP33" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AQ33" s="31" t="s">
+      <c r="AQ33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AR33" s="39" t="s">
+      <c r="AR33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AS33" s="71" t="s">
+      <c r="AS33" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="78"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="78"/>
-      <c r="AY33" s="79"/>
-      <c r="AZ33" s="47"/>
-      <c r="BA33" s="42"/>
-      <c r="BB33" s="42"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="42"/>
-      <c r="BG33" s="42"/>
+      <c r="AT33" s="20"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="71"/>
+      <c r="AW33" s="71"/>
+      <c r="AX33" s="71"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="35"/>
+      <c r="BA33" s="30"/>
+      <c r="BB33" s="30"/>
+      <c r="BC33" s="30"/>
+      <c r="BD33" s="30"/>
+      <c r="BE33" s="30"/>
+      <c r="BF33" s="30"/>
+      <c r="BG33" s="30"/>
     </row>
     <row r="34" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="23" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="29"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="78"/>
-      <c r="AW34" s="78"/>
-      <c r="AX34" s="78"/>
-      <c r="AY34" s="79"/>
-      <c r="AZ34" s="47"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-    </row>
-    <row r="35" spans="1:59" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="38"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="38"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="78"/>
-      <c r="AY35" s="79"/>
-      <c r="AZ35" s="47"/>
-      <c r="BA35" s="42"/>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
-      <c r="BD35" s="42"/>
-      <c r="BE35" s="42"/>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="42"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="20"/>
+      <c r="AT34" s="20"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="71"/>
+      <c r="AW34" s="71"/>
+      <c r="AX34" s="71"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="35"/>
+      <c r="BA34" s="30"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="30"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="30"/>
+      <c r="BG34" s="30"/>
+    </row>
+    <row r="35" spans="1:59" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
+      <c r="AL35" s="25"/>
+      <c r="AM35" s="25"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="25"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="25"/>
+      <c r="AT35" s="25"/>
+      <c r="AU35" s="25"/>
+      <c r="AV35" s="71"/>
+      <c r="AW35" s="71"/>
+      <c r="AX35" s="71"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="35"/>
+      <c r="BA35" s="30"/>
+      <c r="BB35" s="30"/>
+      <c r="BC35" s="30"/>
+      <c r="BD35" s="30"/>
+      <c r="BE35" s="30"/>
+      <c r="BF35" s="30"/>
+      <c r="BG35" s="30"/>
     </row>
     <row r="36" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="29"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="31" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="80"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="20"/>
+      <c r="AT36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="78"/>
-      <c r="AW36" s="78"/>
-      <c r="AX36" s="78"/>
-      <c r="AY36" s="79"/>
-      <c r="AZ36" s="47"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="42"/>
-      <c r="BG36" s="42"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="71"/>
+      <c r="AW36" s="71"/>
+      <c r="AX36" s="71"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="35"/>
+      <c r="BA36" s="30"/>
+      <c r="BB36" s="30"/>
+      <c r="BC36" s="30"/>
+      <c r="BD36" s="30"/>
+      <c r="BE36" s="30"/>
+      <c r="BF36" s="30"/>
+      <c r="BG36" s="30"/>
     </row>
     <row r="37" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="29"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="78"/>
-      <c r="AW37" s="78"/>
-      <c r="AX37" s="78"/>
-      <c r="AY37" s="79"/>
-      <c r="AZ37" s="47"/>
-      <c r="BA37" s="42"/>
-      <c r="BB37" s="42"/>
-      <c r="BC37" s="42"/>
-      <c r="BD37" s="42"/>
-      <c r="BE37" s="42"/>
-      <c r="BF37" s="42"/>
-      <c r="BG37" s="42"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="80"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="71"/>
+      <c r="AW37" s="71"/>
+      <c r="AX37" s="71"/>
+      <c r="AY37" s="72"/>
+      <c r="AZ37" s="35"/>
+      <c r="BA37" s="30"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="30"/>
+      <c r="BD37" s="30"/>
+      <c r="BE37" s="30"/>
+      <c r="BF37" s="30"/>
+      <c r="BG37" s="30"/>
     </row>
     <row r="38" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="81"/>
+      <c r="B38" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="30"/>
-      <c r="AP38" s="30"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="30"/>
-      <c r="AT38" s="30"/>
-      <c r="AU38" s="32" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="80"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="19"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AV38" s="78"/>
-      <c r="AW38" s="78"/>
-      <c r="AX38" s="78"/>
-      <c r="AY38" s="79"/>
-      <c r="AZ38" s="47"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="42"/>
-      <c r="BC38" s="42"/>
-      <c r="BD38" s="42"/>
-      <c r="BE38" s="42"/>
-      <c r="BF38" s="42"/>
-      <c r="BG38" s="42"/>
+      <c r="AV38" s="71"/>
+      <c r="AW38" s="71"/>
+      <c r="AX38" s="71"/>
+      <c r="AY38" s="72"/>
+      <c r="AZ38" s="35"/>
+      <c r="BA38" s="30"/>
+      <c r="BB38" s="30"/>
+      <c r="BC38" s="30"/>
+      <c r="BD38" s="30"/>
+      <c r="BE38" s="30"/>
+      <c r="BF38" s="30"/>
+      <c r="BG38" s="30"/>
     </row>
     <row r="39" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="30"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="30"/>
-      <c r="AT39" s="30"/>
-      <c r="AU39" s="33"/>
-      <c r="AV39" s="78"/>
-      <c r="AW39" s="78"/>
-      <c r="AX39" s="78"/>
-      <c r="AY39" s="79"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="42"/>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="42"/>
-      <c r="BF39" s="42"/>
-      <c r="BG39" s="42"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="80"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="19"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="71"/>
+      <c r="AW39" s="71"/>
+      <c r="AX39" s="71"/>
+      <c r="AY39" s="72"/>
+      <c r="AZ39" s="35"/>
+      <c r="BA39" s="30"/>
+      <c r="BB39" s="30"/>
+      <c r="BC39" s="30"/>
+      <c r="BD39" s="30"/>
+      <c r="BE39" s="30"/>
+      <c r="BF39" s="30"/>
+      <c r="BG39" s="30"/>
     </row>
     <row r="40" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="30"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="29"/>
-      <c r="AO40" s="30"/>
-      <c r="AP40" s="30"/>
-      <c r="AQ40" s="33"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="30"/>
-      <c r="AT40" s="31" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="80"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="20"/>
+      <c r="AT40" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AU40" s="32" t="s">
+      <c r="AU40" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AV40" s="78"/>
-      <c r="AW40" s="78"/>
-      <c r="AX40" s="78"/>
-      <c r="AY40" s="79"/>
-      <c r="AZ40" s="47"/>
-      <c r="BA40" s="42"/>
-      <c r="BB40" s="42"/>
-      <c r="BC40" s="42"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
+      <c r="AV40" s="71"/>
+      <c r="AW40" s="71"/>
+      <c r="AX40" s="71"/>
+      <c r="AY40" s="72"/>
+      <c r="AZ40" s="35"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="30"/>
+      <c r="BC40" s="30"/>
+      <c r="BD40" s="30"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="30"/>
+      <c r="BG40" s="30"/>
     </row>
     <row r="41" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="29"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="33"/>
-      <c r="AR41" s="29"/>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-      <c r="AU41" s="33"/>
-      <c r="AV41" s="78"/>
-      <c r="AW41" s="78"/>
-      <c r="AX41" s="78"/>
-      <c r="AY41" s="79"/>
-      <c r="AZ41" s="47"/>
-      <c r="BA41" s="42"/>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="42"/>
-      <c r="BE41" s="42"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-    </row>
-    <row r="42" spans="1:59" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="35"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="37"/>
-      <c r="AR42" s="35"/>
-      <c r="AS42" s="36"/>
-      <c r="AT42" s="36"/>
-      <c r="AU42" s="36"/>
-      <c r="AV42" s="78"/>
-      <c r="AW42" s="78"/>
-      <c r="AX42" s="78"/>
-      <c r="AY42" s="79"/>
-      <c r="AZ42" s="47"/>
-      <c r="BA42" s="42"/>
-      <c r="BB42" s="42"/>
-      <c r="BC42" s="42"/>
-      <c r="BD42" s="42"/>
-      <c r="BE42" s="42"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="20"/>
+      <c r="AT41" s="20"/>
+      <c r="AU41" s="23"/>
+      <c r="AV41" s="71"/>
+      <c r="AW41" s="71"/>
+      <c r="AX41" s="71"/>
+      <c r="AY41" s="72"/>
+      <c r="AZ41" s="35"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+    </row>
+    <row r="42" spans="1:59" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="79"/>
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="79"/>
+      <c r="AE42" s="80"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="25"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="25"/>
+      <c r="AP42" s="25"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="24"/>
+      <c r="AS42" s="25"/>
+      <c r="AT42" s="25"/>
+      <c r="AU42" s="25"/>
+      <c r="AV42" s="71"/>
+      <c r="AW42" s="71"/>
+      <c r="AX42" s="71"/>
+      <c r="AY42" s="72"/>
+      <c r="AZ42" s="35"/>
+      <c r="BA42" s="30"/>
+      <c r="BB42" s="30"/>
+      <c r="BC42" s="30"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
     </row>
     <row r="43" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32" t="s">
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="32" t="s">
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="32" t="s">
+      <c r="L43" s="19"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="32" t="s">
+      <c r="P43" s="19"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T43" s="29"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="32" t="s">
+      <c r="T43" s="19"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="30"/>
-      <c r="AI43" s="32" t="s">
+      <c r="X43" s="78"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="79"/>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="79"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="30"/>
-      <c r="AM43" s="32" t="s">
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="32" t="s">
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AR43" s="29"/>
-      <c r="AS43" s="30"/>
-      <c r="AT43" s="30"/>
-      <c r="AU43" s="32" t="s">
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="20"/>
+      <c r="AT43" s="20"/>
+      <c r="AU43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AY43" s="79"/>
-      <c r="AZ43" s="47"/>
-      <c r="BA43" s="42"/>
-      <c r="BB43" s="42"/>
-      <c r="BC43" s="42"/>
-      <c r="BD43" s="42"/>
-      <c r="BE43" s="42"/>
-      <c r="BF43" s="42"/>
-      <c r="BG43" s="42"/>
+      <c r="AV43" s="71"/>
+      <c r="AW43" s="71"/>
+      <c r="AX43" s="71"/>
+      <c r="AY43" s="72"/>
+      <c r="AZ43" s="35"/>
+      <c r="BA43" s="30"/>
+      <c r="BB43" s="30"/>
+      <c r="BC43" s="30"/>
+      <c r="BD43" s="30"/>
+      <c r="BE43" s="30"/>
+      <c r="BF43" s="30"/>
+      <c r="BG43" s="30"/>
     </row>
     <row r="44" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="23" t="s">
+      <c r="A44" s="81"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="76" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="76" t="s">
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="29"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="76" t="s">
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="76" t="s">
+      <c r="P44" s="19"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="T44" s="29"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="76" t="s">
+      <c r="T44" s="19"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="76" t="s">
+      <c r="X44" s="78"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="79"/>
+      <c r="AA44" s="79"/>
+      <c r="AB44" s="79"/>
+      <c r="AC44" s="79"/>
+      <c r="AD44" s="79"/>
+      <c r="AE44" s="80"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="76" t="s">
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="76" t="s">
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AR44" s="29"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="30"/>
-      <c r="AU44" s="76" t="s">
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="20"/>
+      <c r="AT44" s="20"/>
+      <c r="AU44" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AY44" s="79"/>
-      <c r="AZ44" s="47"/>
-      <c r="BA44" s="42"/>
-      <c r="BB44" s="42"/>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="42"/>
-      <c r="BE44" s="42"/>
-      <c r="BF44" s="42"/>
-      <c r="BG44" s="42"/>
+      <c r="AV44" s="71"/>
+      <c r="AW44" s="71"/>
+      <c r="AX44" s="71"/>
+      <c r="AY44" s="72"/>
+      <c r="AZ44" s="35"/>
+      <c r="BA44" s="30"/>
+      <c r="BB44" s="30"/>
+      <c r="BC44" s="30"/>
+      <c r="BD44" s="30"/>
+      <c r="BE44" s="30"/>
+      <c r="BF44" s="30"/>
+      <c r="BG44" s="30"/>
     </row>
     <row r="45" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="32" t="s">
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="32" t="s">
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="29"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="32" t="s">
+      <c r="L45" s="19"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="32" t="s">
+      <c r="P45" s="19"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="32" t="s">
+      <c r="T45" s="19"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="32" t="s">
+      <c r="X45" s="78"/>
+      <c r="Y45" s="79"/>
+      <c r="Z45" s="79"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="79"/>
+      <c r="AC45" s="79"/>
+      <c r="AD45" s="79"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="32" t="s">
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="32" t="s">
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AR45" s="29"/>
-      <c r="AS45" s="30"/>
-      <c r="AT45" s="30"/>
-      <c r="AU45" s="32" t="s">
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+      <c r="AU45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AV45" s="78"/>
-      <c r="AW45" s="78"/>
-      <c r="AX45" s="78"/>
-      <c r="AY45" s="79"/>
-      <c r="AZ45" s="47"/>
-      <c r="BA45" s="42"/>
-      <c r="BB45" s="42"/>
-      <c r="BC45" s="42"/>
-      <c r="BD45" s="42"/>
-      <c r="BE45" s="42"/>
-      <c r="BF45" s="42"/>
-      <c r="BG45" s="42"/>
+      <c r="AV45" s="71"/>
+      <c r="AW45" s="71"/>
+      <c r="AX45" s="71"/>
+      <c r="AY45" s="72"/>
+      <c r="AZ45" s="35"/>
+      <c r="BA45" s="30"/>
+      <c r="BB45" s="30"/>
+      <c r="BC45" s="30"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="30"/>
+      <c r="BF45" s="30"/>
+      <c r="BG45" s="30"/>
     </row>
     <row r="46" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="23" t="s">
+      <c r="A46" s="81"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="76" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="76" t="s">
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="76" t="s">
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="76" t="s">
+      <c r="P46" s="19"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="76" t="s">
+      <c r="T46" s="19"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="76" t="s">
+      <c r="X46" s="78"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
+      <c r="AC46" s="79"/>
+      <c r="AD46" s="79"/>
+      <c r="AE46" s="80"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="30"/>
-      <c r="AM46" s="76" t="s">
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="30"/>
-      <c r="AP46" s="30"/>
-      <c r="AQ46" s="76" t="s">
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AR46" s="29"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="30"/>
-      <c r="AU46" s="76" t="s">
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="20"/>
+      <c r="AT46" s="20"/>
+      <c r="AU46" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AV46" s="78"/>
-      <c r="AW46" s="78"/>
-      <c r="AX46" s="78"/>
-      <c r="AY46" s="79"/>
-      <c r="AZ46" s="47"/>
-      <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
-      <c r="BD46" s="42"/>
-      <c r="BE46" s="42"/>
-      <c r="BF46" s="42"/>
-      <c r="BG46" s="42"/>
+      <c r="AV46" s="71"/>
+      <c r="AW46" s="71"/>
+      <c r="AX46" s="71"/>
+      <c r="AY46" s="72"/>
+      <c r="AZ46" s="35"/>
+      <c r="BA46" s="30"/>
+      <c r="BB46" s="30"/>
+      <c r="BC46" s="30"/>
+      <c r="BD46" s="30"/>
+      <c r="BE46" s="30"/>
+      <c r="BF46" s="30"/>
+      <c r="BG46" s="30"/>
     </row>
     <row r="47" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="81"/>
+      <c r="B47" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="32" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="32" t="s">
+      <c r="H47" s="19"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="32" t="s">
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="32" t="s">
+      <c r="P47" s="19"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="32" t="s">
+      <c r="T47" s="19"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="32" t="s">
+      <c r="X47" s="78"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="79"/>
+      <c r="AC47" s="79"/>
+      <c r="AD47" s="79"/>
+      <c r="AE47" s="80"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="32" t="s">
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="32" t="s">
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30"/>
-      <c r="AU47" s="32" t="s">
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20"/>
+      <c r="AU47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AV47" s="78"/>
-      <c r="AW47" s="78"/>
-      <c r="AX47" s="78"/>
-      <c r="AY47" s="79"/>
-      <c r="AZ47" s="47"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42"/>
-      <c r="BG47" s="42"/>
+      <c r="AV47" s="71"/>
+      <c r="AW47" s="71"/>
+      <c r="AX47" s="71"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="30"/>
+      <c r="BB47" s="30"/>
+      <c r="BC47" s="30"/>
+      <c r="BD47" s="30"/>
+      <c r="BE47" s="30"/>
+      <c r="BF47" s="30"/>
+      <c r="BG47" s="30"/>
     </row>
     <row r="48" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="23" t="s">
+      <c r="A48" s="81"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="76" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="76" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="29"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="76" t="s">
+      <c r="L48" s="19"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="76" t="s">
+      <c r="P48" s="19"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="T48" s="29"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="76" t="s">
+      <c r="T48" s="19"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="76" t="s">
+      <c r="X48" s="78"/>
+      <c r="Y48" s="79"/>
+      <c r="Z48" s="79"/>
+      <c r="AA48" s="79"/>
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="30"/>
-      <c r="AL48" s="30"/>
-      <c r="AM48" s="76" t="s">
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AN48" s="29"/>
-      <c r="AO48" s="30"/>
-      <c r="AP48" s="30"/>
-      <c r="AQ48" s="76" t="s">
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AR48" s="29"/>
-      <c r="AS48" s="30"/>
-      <c r="AT48" s="30"/>
-      <c r="AU48" s="76" t="s">
+      <c r="AR48" s="19"/>
+      <c r="AS48" s="20"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="AV48" s="78"/>
-      <c r="AW48" s="78"/>
-      <c r="AX48" s="78"/>
-      <c r="AY48" s="79"/>
-      <c r="AZ48" s="47"/>
-      <c r="BA48" s="42"/>
-      <c r="BB48" s="42"/>
-      <c r="BC48" s="42"/>
-      <c r="BD48" s="42"/>
-      <c r="BE48" s="42"/>
-      <c r="BF48" s="42"/>
-      <c r="BG48" s="42"/>
-    </row>
-    <row r="49" spans="2:59" s="13" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="16"/>
-      <c r="Z49" s="16"/>
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
-      <c r="AD49" s="16"/>
-      <c r="AE49" s="16"/>
-      <c r="AF49" s="16"/>
-      <c r="AG49" s="16"/>
-      <c r="AH49" s="16"/>
-      <c r="AI49" s="16"/>
-      <c r="AJ49" s="16"/>
-      <c r="AK49" s="16"/>
-      <c r="AL49" s="16"/>
-      <c r="AM49" s="16"/>
-      <c r="AN49" s="16"/>
-      <c r="AO49" s="16"/>
-      <c r="AP49" s="16"/>
-      <c r="AQ49" s="16"/>
-      <c r="AR49" s="16"/>
-      <c r="AS49" s="16"/>
-      <c r="AT49" s="16"/>
-      <c r="AU49" s="16"/>
-      <c r="AV49" s="57"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="58"/>
-      <c r="AZ49" s="46"/>
-      <c r="BA49" s="41"/>
-      <c r="BB49" s="41"/>
-      <c r="BC49" s="41"/>
-      <c r="BD49" s="41"/>
-      <c r="BE49" s="41"/>
-      <c r="BF49" s="41"/>
-      <c r="BG49" s="41"/>
+      <c r="AV48" s="71"/>
+      <c r="AW48" s="71"/>
+      <c r="AX48" s="71"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="35"/>
+      <c r="BA48" s="30"/>
+      <c r="BB48" s="30"/>
+      <c r="BC48" s="30"/>
+      <c r="BD48" s="30"/>
+      <c r="BE48" s="30"/>
+      <c r="BF48" s="30"/>
+      <c r="BG48" s="30"/>
+    </row>
+    <row r="49" spans="2:59" s="8" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="43"/>
+      <c r="AX49" s="43"/>
+      <c r="AY49" s="43"/>
+      <c r="AZ49" s="34"/>
+      <c r="BA49" s="29"/>
+      <c r="BB49" s="29"/>
+      <c r="BC49" s="29"/>
+      <c r="BD49" s="29"/>
+      <c r="BE49" s="29"/>
+      <c r="BF49" s="29"/>
+      <c r="BG49" s="29"/>
     </row>
     <row r="50" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
+      <c r="B50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -5091,7 +5097,7 @@
       <c r="BG50" s="5"/>
     </row>
     <row r="51" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
+      <c r="B51" s="6"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -5150,7 +5156,7 @@
       <c r="BG51" s="5"/>
     </row>
     <row r="52" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
+      <c r="B52" s="6"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -5209,7 +5215,7 @@
       <c r="BG52" s="5"/>
     </row>
     <row r="53" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
+      <c r="B53" s="6"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -5271,18 +5277,18 @@
       <c r="B54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="85" t="s">
+      <c r="F54" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -5332,16 +5338,16 @@
       <c r="B55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -5391,20 +5397,20 @@
       <c r="B56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="89" t="s">
+      <c r="F56" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="90" t="s">
+      <c r="G56" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="90"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -5454,20 +5460,20 @@
       <c r="B57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="88" t="s">
+      <c r="F57" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="87" t="s">
+      <c r="G57" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -5517,20 +5523,20 @@
       <c r="B58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="88" t="s">
+      <c r="F58" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="87" t="s">
+      <c r="G58" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -5580,20 +5586,20 @@
       <c r="B59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="88" t="s">
+      <c r="F59" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="87" t="s">
+      <c r="G59" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -5643,20 +5649,20 @@
       <c r="B60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="88" t="s">
+      <c r="F60" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="87" t="s">
+      <c r="G60" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -5706,20 +5712,20 @@
       <c r="B61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="88" t="s">
+      <c r="F61" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -5923,17 +5929,20 @@
       <c r="B76" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="G57:O57"/>
-    <mergeCell ref="G58:O58"/>
-    <mergeCell ref="G59:O59"/>
-    <mergeCell ref="G60:O60"/>
-    <mergeCell ref="G61:O61"/>
-    <mergeCell ref="AV7:AY48"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="G56:O56"/>
-    <mergeCell ref="F54:O55"/>
+  <mergeCells count="47">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
@@ -5950,6 +5959,11 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AV7:AY48"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="G56:O56"/>
+    <mergeCell ref="F54:O55"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B26:B27"/>
@@ -5958,18 +5972,11 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="G57:O57"/>
+    <mergeCell ref="G58:O58"/>
+    <mergeCell ref="G59:O59"/>
+    <mergeCell ref="G60:O60"/>
+    <mergeCell ref="G61:O61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5979,15 +5986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010028133FD329801E458CCD26CAEC274AC7" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="951de766674a7b781fc0a2a3f1a523b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7a9366bb-544e-4fbf-98c6-865627896ea8" xmlns:ns4="99692989-243b-424a-8cea-8b1ef08e5de0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb7d36cb868d28059a7a39a6a28b72ca" ns3:_="" ns4:_="">
     <xsd:import namespace="7a9366bb-544e-4fbf-98c6-865627896ea8"/>
@@ -6216,6 +6214,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6225,14 +6232,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE327841-59DE-43CE-87E6-42A415587FEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34209EF8-FE73-4AD1-A04B-485A9BDBF6FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6247,6 +6246,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE327841-59DE-43CE-87E6-42A415587FEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/zeitplan_uek335.xlsx
+++ b/zeitplan_uek335.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\OneDrive\Dokumente\GitHub\uek335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207B7E7-9BA3-4B00-A5BA-C04A2FAF09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B392E59-78F9-4D0D-A467-CC4A2CB71DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="0" windowWidth="23445" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="54">
   <si>
     <t>zeitplan</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Author: Dominic Streit</t>
+  </si>
+  <si>
+    <t>morgen</t>
+  </si>
+  <si>
+    <t>nachmitag</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,9 +855,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,74 +916,80 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1814,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="96" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,103 +1835,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:59" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY3" s="91"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="73">
+      <c r="D4" s="87">
         <v>45068</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="73">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="87">
         <v>45069</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="73">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="87">
         <v>45070</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="73">
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <v>45071</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="74">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="88">
         <v>45072</v>
       </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="73">
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="87">
         <v>45073</v>
       </c>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="73">
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="87">
         <v>45074</v>
       </c>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="73">
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="87">
         <v>45075</v>
       </c>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="74">
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="88">
         <v>45076</v>
       </c>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="73">
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="87">
         <v>45077</v>
       </c>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="73">
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <v>45078</v>
       </c>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="70">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="84">
         <v>45079</v>
       </c>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="72"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="86"/>
       <c r="AZ4" s="32"/>
       <c r="BA4" s="31"/>
       <c r="BB4" s="31"/>
@@ -2147,10 +2252,10 @@
       <c r="BG6" s="29"/>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2158,7 +2263,7 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="59">
+      <c r="F7" s="58">
         <v>2</v>
       </c>
       <c r="G7" s="22" t="s">
@@ -2179,16 +2284,16 @@
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="78" t="s">
+      <c r="X7" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="80"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="82"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="20"/>
       <c r="AH7" s="20"/>
@@ -2205,12 +2310,12 @@
       <c r="AS7" s="20"/>
       <c r="AT7" s="20"/>
       <c r="AU7" s="23"/>
-      <c r="AV7" s="82" t="s">
+      <c r="AV7" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="82"/>
-      <c r="AY7" s="83"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="74"/>
       <c r="AZ7" s="35"/>
       <c r="BA7" s="30"/>
       <c r="BB7" s="30"/>
@@ -2221,17 +2326,17 @@
       <c r="BG7" s="30"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="65" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="19"/>
@@ -2249,14 +2354,14 @@
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="82"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
@@ -2273,10 +2378,10 @@
       <c r="AS8" s="20"/>
       <c r="AT8" s="20"/>
       <c r="AU8" s="23"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="83"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="74"/>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="30"/>
       <c r="BB8" s="30"/>
@@ -2287,8 +2392,8 @@
       <c r="BG8" s="30"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2297,13 +2402,13 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="46"/>
+      <c r="K9" s="45"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="23"/>
@@ -2315,14 +2420,14 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="82"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
@@ -2339,10 +2444,10 @@
       <c r="AS9" s="20"/>
       <c r="AT9" s="20"/>
       <c r="AU9" s="23"/>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="82"/>
-      <c r="AY9" s="83"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="74"/>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="30"/>
       <c r="BB9" s="30"/>
@@ -2353,20 +2458,20 @@
       <c r="BG9" s="30"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="59" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="49"/>
-      <c r="K10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="K10" s="46"/>
       <c r="N10" s="20"/>
       <c r="O10" s="23"/>
       <c r="P10" s="20"/>
@@ -2377,14 +2482,14 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="82"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
@@ -2401,10 +2506,10 @@
       <c r="AS10" s="20"/>
       <c r="AT10" s="20"/>
       <c r="AU10" s="23"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="83"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="74"/>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="30"/>
       <c r="BB10" s="30"/>
@@ -2415,8 +2520,8 @@
       <c r="BG10" s="30"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -2425,12 +2530,12 @@
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="19"/>
       <c r="O11" s="23"/>
       <c r="P11" s="20"/>
@@ -2441,14 +2546,14 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="82"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="20"/>
       <c r="AH11" s="20"/>
@@ -2465,10 +2570,10 @@
       <c r="AS11" s="20"/>
       <c r="AT11" s="20"/>
       <c r="AU11" s="23"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="82"/>
-      <c r="AY11" s="83"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="74"/>
       <c r="AZ11" s="35"/>
       <c r="BA11" s="30"/>
       <c r="BB11" s="30"/>
@@ -2479,19 +2584,21 @@
       <c r="BG11" s="30"/>
     </row>
     <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="47"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="19"/>
       <c r="O12" s="23"/>
       <c r="P12" s="20"/>
@@ -2502,14 +2609,14 @@
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="82"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
@@ -2526,10 +2633,10 @@
       <c r="AS12" s="20"/>
       <c r="AT12" s="20"/>
       <c r="AU12" s="23"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="83"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="74"/>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="30"/>
       <c r="BB12" s="30"/>
@@ -2540,8 +2647,8 @@
       <c r="BG12" s="30"/>
     </row>
     <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2550,15 +2657,15 @@
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="52"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="21">
         <v>4</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="19"/>
       <c r="M13" s="20"/>
-      <c r="O13" s="62"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -2567,14 +2674,14 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="82"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="20"/>
       <c r="AH13" s="20"/>
@@ -2591,10 +2698,10 @@
       <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
       <c r="AU13" s="23"/>
-      <c r="AV13" s="82"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="83"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="74"/>
       <c r="AZ13" s="35"/>
       <c r="BA13" s="30"/>
       <c r="BB13" s="30"/>
@@ -2605,8 +2712,8 @@
       <c r="BG13" s="30"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
@@ -2614,8 +2721,10 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="92" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="23"/>
       <c r="L14" s="19"/>
@@ -2630,14 +2739,14 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="82"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
@@ -2654,10 +2763,10 @@
       <c r="AS14" s="20"/>
       <c r="AT14" s="20"/>
       <c r="AU14" s="23"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="83"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="74"/>
       <c r="AZ14" s="35"/>
       <c r="BA14" s="30"/>
       <c r="BB14" s="30"/>
@@ -2690,14 +2799,14 @@
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="82"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
@@ -2714,10 +2823,10 @@
       <c r="AS15" s="25"/>
       <c r="AT15" s="24"/>
       <c r="AU15" s="25"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="83"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="74"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="30"/>
       <c r="BB15" s="30"/>
@@ -2728,10 +2837,10 @@
       <c r="BG15" s="30"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2743,7 +2852,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="55">
+      <c r="J16" s="54">
         <v>4</v>
       </c>
       <c r="K16" s="22">
@@ -2759,14 +2868,14 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="82"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="20"/>
       <c r="AH16" s="20"/>
@@ -2783,10 +2892,10 @@
       <c r="AS16" s="20"/>
       <c r="AT16" s="20"/>
       <c r="AU16" s="23"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="83"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="74"/>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="30"/>
       <c r="BB16" s="30"/>
@@ -2797,8 +2906,8 @@
       <c r="BG16" s="30"/>
     </row>
     <row r="17" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="17" t="s">
         <v>19</v>
       </c>
@@ -2822,14 +2931,14 @@
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="82"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="20"/>
       <c r="AH17" s="20"/>
@@ -2846,10 +2955,10 @@
       <c r="AS17" s="20"/>
       <c r="AT17" s="20"/>
       <c r="AU17" s="23"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="83"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="74"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="30"/>
       <c r="BB17" s="30"/>
@@ -2860,8 +2969,8 @@
       <c r="BG17" s="30"/>
     </row>
     <row r="18" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="77" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -2875,10 +2984,10 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="57" t="s">
+      <c r="M18" s="56" t="s">
         <v>28</v>
       </c>
       <c r="N18" s="20"/>
@@ -2891,14 +3000,14 @@
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="82"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
@@ -2915,10 +3024,10 @@
       <c r="AS18" s="20"/>
       <c r="AT18" s="20"/>
       <c r="AU18" s="23"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="82"/>
-      <c r="AY18" s="83"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="74"/>
       <c r="AZ18" s="35"/>
       <c r="BA18" s="30"/>
       <c r="BB18" s="30"/>
@@ -2929,8 +3038,8 @@
       <c r="BG18" s="30"/>
     </row>
     <row r="19" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
@@ -2954,14 +3063,14 @@
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="82"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="20"/>
       <c r="AH19" s="20"/>
@@ -2978,10 +3087,10 @@
       <c r="AS19" s="20"/>
       <c r="AT19" s="20"/>
       <c r="AU19" s="23"/>
-      <c r="AV19" s="82"/>
-      <c r="AW19" s="82"/>
-      <c r="AX19" s="82"/>
-      <c r="AY19" s="83"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="74"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="30"/>
       <c r="BB19" s="30"/>
@@ -2992,8 +3101,8 @@
       <c r="BG19" s="30"/>
     </row>
     <row r="20" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="77" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -3008,10 +3117,10 @@
       <c r="J20" s="20"/>
       <c r="K20" s="23"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="55" t="s">
+      <c r="M20" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="54" t="s">
         <v>34</v>
       </c>
       <c r="O20" s="23"/>
@@ -3023,14 +3132,14 @@
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
@@ -3047,10 +3156,10 @@
       <c r="AS20" s="20"/>
       <c r="AT20" s="20"/>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="82"/>
-      <c r="AW20" s="82"/>
-      <c r="AX20" s="82"/>
-      <c r="AY20" s="83"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="74"/>
       <c r="AZ20" s="35"/>
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
@@ -3061,8 +3170,8 @@
       <c r="BG20" s="30"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
@@ -3077,7 +3186,7 @@
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
@@ -3086,14 +3195,14 @@
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="82"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
@@ -3110,10 +3219,10 @@
       <c r="AS21" s="20"/>
       <c r="AT21" s="20"/>
       <c r="AU21" s="23"/>
-      <c r="AV21" s="82"/>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="82"/>
-      <c r="AY21" s="83"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="74"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="30"/>
       <c r="BB21" s="30"/>
@@ -3124,8 +3233,8 @@
       <c r="BG21" s="30"/>
     </row>
     <row r="22" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="77" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -3141,7 +3250,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="19"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="55" t="s">
+      <c r="N22" s="54" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="22">
@@ -3155,14 +3264,14 @@
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="82"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
@@ -3179,10 +3288,10 @@
       <c r="AS22" s="20"/>
       <c r="AT22" s="20"/>
       <c r="AU22" s="23"/>
-      <c r="AV22" s="82"/>
-      <c r="AW22" s="82"/>
-      <c r="AX22" s="82"/>
-      <c r="AY22" s="83"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="74"/>
       <c r="AZ22" s="35"/>
       <c r="BA22" s="30"/>
       <c r="BB22" s="30"/>
@@ -3193,8 +3302,8 @@
       <c r="BG22" s="30"/>
     </row>
     <row r="23" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="77"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3218,14 +3327,14 @@
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="82"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="20"/>
       <c r="AH23" s="20"/>
@@ -3242,10 +3351,10 @@
       <c r="AS23" s="20"/>
       <c r="AT23" s="20"/>
       <c r="AU23" s="23"/>
-      <c r="AV23" s="82"/>
-      <c r="AW23" s="82"/>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="83"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="74"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="30"/>
       <c r="BB23" s="30"/>
@@ -3256,8 +3365,8 @@
       <c r="BG23" s="30"/>
     </row>
     <row r="24" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -3278,7 +3387,7 @@
       <c r="P24" s="21">
         <v>4</v>
       </c>
-      <c r="Q24" s="55">
+      <c r="Q24" s="54">
         <v>4</v>
       </c>
       <c r="R24" s="21">
@@ -3287,14 +3396,14 @@
       <c r="S24" s="22">
         <v>4</v>
       </c>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="82"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
@@ -3311,10 +3420,10 @@
       <c r="AS24" s="20"/>
       <c r="AT24" s="20"/>
       <c r="AU24" s="23"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="83"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="73"/>
+      <c r="AY24" s="74"/>
       <c r="AZ24" s="35"/>
       <c r="BA24" s="30"/>
       <c r="BB24" s="30"/>
@@ -3325,8 +3434,8 @@
       <c r="BG24" s="30"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="17" t="s">
         <v>19</v>
       </c>
@@ -3346,15 +3455,15 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
-      <c r="T25" s="63"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="80"/>
+      <c r="T25" s="62"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="82"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
@@ -3371,10 +3480,10 @@
       <c r="AS25" s="20"/>
       <c r="AT25" s="20"/>
       <c r="AU25" s="23"/>
-      <c r="AV25" s="82"/>
-      <c r="AW25" s="82"/>
-      <c r="AX25" s="82"/>
-      <c r="AY25" s="83"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="74"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="30"/>
       <c r="BB25" s="30"/>
@@ -3407,14 +3516,14 @@
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="82"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
@@ -3431,10 +3540,10 @@
       <c r="AS26" s="25"/>
       <c r="AT26" s="25"/>
       <c r="AU26" s="25"/>
-      <c r="AV26" s="82"/>
-      <c r="AW26" s="82"/>
-      <c r="AX26" s="82"/>
-      <c r="AY26" s="83"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="74"/>
       <c r="AZ26" s="35"/>
       <c r="BA26" s="30"/>
       <c r="BB26" s="30"/>
@@ -3445,10 +3554,10 @@
       <c r="BG26" s="30"/>
     </row>
     <row r="27" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -3476,30 +3585,30 @@
       <c r="U27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="57" t="s">
+      <c r="V27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="54" t="s">
+      <c r="W27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="82"/>
       <c r="AF27" s="44" t="s">
         <v>30</v>
       </c>
       <c r="AG27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AH27" s="57" t="s">
+      <c r="AH27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AI27" s="54" t="s">
+      <c r="AI27" s="53" t="s">
         <v>30</v>
       </c>
       <c r="AJ27" s="44" t="s">
@@ -3508,10 +3617,10 @@
       <c r="AK27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AL27" s="57" t="s">
+      <c r="AL27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AM27" s="54" t="s">
+      <c r="AM27" s="53" t="s">
         <v>30</v>
       </c>
       <c r="AN27" s="44" t="s">
@@ -3520,10 +3629,10 @@
       <c r="AO27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AP27" s="57" t="s">
+      <c r="AP27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AQ27" s="54" t="s">
+      <c r="AQ27" s="53" t="s">
         <v>30</v>
       </c>
       <c r="AR27" s="44" t="s">
@@ -3534,10 +3643,10 @@
       </c>
       <c r="AT27" s="20"/>
       <c r="AU27" s="23"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="83"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="74"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="30"/>
       <c r="BB27" s="30"/>
@@ -3548,8 +3657,8 @@
       <c r="BG27" s="30"/>
     </row>
     <row r="28" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="17" t="s">
         <v>19</v>
       </c>
@@ -3573,14 +3682,14 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
       <c r="W28" s="23"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="82"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
@@ -3597,10 +3706,10 @@
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
       <c r="AU28" s="23"/>
-      <c r="AV28" s="82"/>
-      <c r="AW28" s="82"/>
-      <c r="AX28" s="82"/>
-      <c r="AY28" s="83"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="73"/>
+      <c r="AY28" s="74"/>
       <c r="AZ28" s="35"/>
       <c r="BA28" s="30"/>
       <c r="BB28" s="30"/>
@@ -3611,8 +3720,8 @@
       <c r="BG28" s="30"/>
     </row>
     <row r="29" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="77" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -3634,63 +3743,63 @@
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="64" t="s">
+      <c r="T29" s="63" t="s">
         <v>26</v>
       </c>
       <c r="U29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="55" t="s">
+      <c r="V29" s="54" t="s">
         <v>26</v>
       </c>
       <c r="W29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="64" t="s">
+      <c r="X29" s="80"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="63" t="s">
         <v>26</v>
       </c>
       <c r="AG29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AH29" s="55" t="s">
+      <c r="AH29" s="54" t="s">
         <v>26</v>
       </c>
       <c r="AI29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AJ29" s="64" t="s">
+      <c r="AJ29" s="63" t="s">
         <v>26</v>
       </c>
       <c r="AK29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AL29" s="55" t="s">
+      <c r="AL29" s="54" t="s">
         <v>26</v>
       </c>
       <c r="AM29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AN29" s="64" t="s">
+      <c r="AN29" s="63" t="s">
         <v>26</v>
       </c>
       <c r="AO29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AP29" s="55" t="s">
+      <c r="AP29" s="54" t="s">
         <v>26</v>
       </c>
       <c r="AQ29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AR29" s="64" t="s">
+      <c r="AR29" s="63" t="s">
         <v>26</v>
       </c>
       <c r="AS29" s="21" t="s">
@@ -3698,10 +3807,10 @@
       </c>
       <c r="AT29" s="20"/>
       <c r="AU29" s="23"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="83"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="74"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="30"/>
       <c r="BB29" s="30"/>
@@ -3712,8 +3821,8 @@
       <c r="BG29" s="30"/>
     </row>
     <row r="30" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="17" t="s">
         <v>19</v>
       </c>
@@ -3737,14 +3846,14 @@
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
       <c r="W30" s="23"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="82"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
@@ -3761,10 +3870,10 @@
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
       <c r="AU30" s="23"/>
-      <c r="AV30" s="82"/>
-      <c r="AW30" s="82"/>
-      <c r="AX30" s="82"/>
-      <c r="AY30" s="83"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="74"/>
       <c r="AZ30" s="35"/>
       <c r="BA30" s="30"/>
       <c r="BB30" s="30"/>
@@ -3775,8 +3884,8 @@
       <c r="BG30" s="30"/>
     </row>
     <row r="31" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="77" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="75" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -3801,30 +3910,30 @@
       <c r="T31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="U31" s="55" t="s">
+      <c r="U31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="59" t="s">
+      <c r="V31" s="58" t="s">
         <v>26</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="82"/>
       <c r="AF31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AG31" s="55" t="s">
+      <c r="AG31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AH31" s="59" t="s">
+      <c r="AH31" s="58" t="s">
         <v>26</v>
       </c>
       <c r="AI31" s="21" t="s">
@@ -3833,10 +3942,10 @@
       <c r="AJ31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AK31" s="55" t="s">
+      <c r="AK31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AL31" s="59" t="s">
+      <c r="AL31" s="58" t="s">
         <v>26</v>
       </c>
       <c r="AM31" s="21" t="s">
@@ -3845,10 +3954,10 @@
       <c r="AN31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AO31" s="55" t="s">
+      <c r="AO31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AP31" s="59" t="s">
+      <c r="AP31" s="58" t="s">
         <v>26</v>
       </c>
       <c r="AQ31" s="21" t="s">
@@ -3857,15 +3966,15 @@
       <c r="AR31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AS31" s="55" t="s">
+      <c r="AS31" s="54" t="s">
         <v>26</v>
       </c>
       <c r="AT31" s="20"/>
       <c r="AU31" s="23"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="83"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="74"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="30"/>
       <c r="BB31" s="30"/>
@@ -3876,8 +3985,8 @@
       <c r="BG31" s="30"/>
     </row>
     <row r="32" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="17" t="s">
         <v>19</v>
       </c>
@@ -3901,14 +4010,14 @@
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
       <c r="W32" s="23"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="82"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
@@ -3925,10 +4034,10 @@
       <c r="AS32" s="20"/>
       <c r="AT32" s="20"/>
       <c r="AU32" s="23"/>
-      <c r="AV32" s="82"/>
-      <c r="AW32" s="82"/>
-      <c r="AX32" s="82"/>
-      <c r="AY32" s="83"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="74"/>
       <c r="AZ32" s="35"/>
       <c r="BA32" s="30"/>
       <c r="BB32" s="30"/>
@@ -3961,14 +4070,14 @@
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="82"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="25"/>
       <c r="AH33" s="25"/>
@@ -3985,10 +4094,10 @@
       <c r="AS33" s="25"/>
       <c r="AT33" s="25"/>
       <c r="AU33" s="25"/>
-      <c r="AV33" s="82"/>
-      <c r="AW33" s="82"/>
-      <c r="AX33" s="82"/>
-      <c r="AY33" s="83"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="74"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="30"/>
       <c r="BB33" s="30"/>
@@ -3999,10 +4108,10 @@
       <c r="BG33" s="30"/>
     </row>
     <row r="34" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="17"/>
@@ -4026,14 +4135,14 @@
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="82"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="20"/>
@@ -4052,10 +4161,10 @@
         <v>28</v>
       </c>
       <c r="AU34" s="23"/>
-      <c r="AV34" s="82"/>
-      <c r="AW34" s="82"/>
-      <c r="AX34" s="82"/>
-      <c r="AY34" s="83"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="74"/>
       <c r="AZ34" s="35"/>
       <c r="BA34" s="30"/>
       <c r="BB34" s="30"/>
@@ -4066,8 +4175,8 @@
       <c r="BG34" s="30"/>
     </row>
     <row r="35" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="77"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
@@ -4089,14 +4198,14 @@
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="81"/>
+      <c r="AD35" s="81"/>
+      <c r="AE35" s="82"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="20"/>
       <c r="AH35" s="20"/>
@@ -4113,10 +4222,10 @@
       <c r="AS35" s="20"/>
       <c r="AT35" s="20"/>
       <c r="AU35" s="23"/>
-      <c r="AV35" s="82"/>
-      <c r="AW35" s="82"/>
-      <c r="AX35" s="82"/>
-      <c r="AY35" s="83"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="74"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="30"/>
       <c r="BB35" s="30"/>
@@ -4127,8 +4236,8 @@
       <c r="BG35" s="30"/>
     </row>
     <row r="36" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="77" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="75" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="17"/>
@@ -4152,14 +4261,14 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="82"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
@@ -4178,10 +4287,10 @@
       <c r="AU36" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AV36" s="82"/>
-      <c r="AW36" s="82"/>
-      <c r="AX36" s="82"/>
-      <c r="AY36" s="83"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="74"/>
       <c r="AZ36" s="35"/>
       <c r="BA36" s="30"/>
       <c r="BB36" s="30"/>
@@ -4192,8 +4301,8 @@
       <c r="BG36" s="30"/>
     </row>
     <row r="37" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="77"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
@@ -4215,14 +4324,14 @@
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="82"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="20"/>
       <c r="AH37" s="20"/>
@@ -4239,10 +4348,10 @@
       <c r="AS37" s="20"/>
       <c r="AT37" s="20"/>
       <c r="AU37" s="23"/>
-      <c r="AV37" s="82"/>
-      <c r="AW37" s="82"/>
-      <c r="AX37" s="82"/>
-      <c r="AY37" s="83"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="74"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="30"/>
       <c r="BB37" s="30"/>
@@ -4253,8 +4362,8 @@
       <c r="BG37" s="30"/>
     </row>
     <row r="38" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="77" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="75" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="17"/>
@@ -4278,14 +4387,14 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="81"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="82"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="20"/>
@@ -4306,10 +4415,10 @@
       <c r="AU38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AV38" s="82"/>
-      <c r="AW38" s="82"/>
-      <c r="AX38" s="82"/>
-      <c r="AY38" s="83"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="74"/>
       <c r="AZ38" s="35"/>
       <c r="BA38" s="30"/>
       <c r="BB38" s="30"/>
@@ -4320,8 +4429,8 @@
       <c r="BG38" s="30"/>
     </row>
     <row r="39" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="77"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
@@ -4343,14 +4452,14 @@
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="79"/>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="80"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="82"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
@@ -4367,10 +4476,10 @@
       <c r="AS39" s="20"/>
       <c r="AT39" s="20"/>
       <c r="AU39" s="23"/>
-      <c r="AV39" s="82"/>
-      <c r="AW39" s="82"/>
-      <c r="AX39" s="82"/>
-      <c r="AY39" s="83"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="74"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="30"/>
       <c r="BB39" s="30"/>
@@ -4403,14 +4512,14 @@
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
       <c r="W40" s="25"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="80"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="82"/>
       <c r="AF40" s="24"/>
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
@@ -4427,10 +4536,10 @@
       <c r="AS40" s="25"/>
       <c r="AT40" s="25"/>
       <c r="AU40" s="25"/>
-      <c r="AV40" s="82"/>
-      <c r="AW40" s="82"/>
-      <c r="AX40" s="82"/>
-      <c r="AY40" s="83"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="73"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="74"/>
       <c r="AZ40" s="35"/>
       <c r="BA40" s="30"/>
       <c r="BB40" s="30"/>
@@ -4441,10 +4550,10 @@
       <c r="BG40" s="30"/>
     </row>
     <row r="41" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="75" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -4480,14 +4589,14 @@
       <c r="W41" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="81"/>
+      <c r="Z41" s="81"/>
+      <c r="AA41" s="81"/>
+      <c r="AB41" s="81"/>
+      <c r="AC41" s="81"/>
+      <c r="AD41" s="81"/>
+      <c r="AE41" s="82"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="20"/>
@@ -4512,10 +4621,10 @@
       <c r="AU41" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AV41" s="82"/>
-      <c r="AW41" s="82"/>
-      <c r="AX41" s="82"/>
-      <c r="AY41" s="83"/>
+      <c r="AV41" s="73"/>
+      <c r="AW41" s="73"/>
+      <c r="AX41" s="73"/>
+      <c r="AY41" s="74"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="30"/>
       <c r="BB41" s="30"/>
@@ -4526,77 +4635,77 @@
       <c r="BG41" s="30"/>
     </row>
     <row r="42" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="60" t="s">
+      <c r="K42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
-      <c r="O42" s="60" t="s">
+      <c r="O42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
-      <c r="S42" s="60" t="s">
+      <c r="S42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="T42" s="19"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="60" t="s">
+      <c r="W42" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="79"/>
-      <c r="Z42" s="79"/>
-      <c r="AA42" s="79"/>
-      <c r="AB42" s="79"/>
-      <c r="AC42" s="79"/>
-      <c r="AD42" s="79"/>
-      <c r="AE42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="81"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="82"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
-      <c r="AI42" s="60" t="s">
+      <c r="AI42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="AJ42" s="19"/>
       <c r="AK42" s="20"/>
       <c r="AL42" s="20"/>
-      <c r="AM42" s="60" t="s">
+      <c r="AM42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="AN42" s="19"/>
       <c r="AO42" s="20"/>
       <c r="AP42" s="20"/>
-      <c r="AQ42" s="60" t="s">
+      <c r="AQ42" s="59" t="s">
         <v>26</v>
       </c>
       <c r="AR42" s="19"/>
       <c r="AS42" s="20"/>
       <c r="AT42" s="20"/>
-      <c r="AU42" s="60" t="s">
+      <c r="AU42" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="AV42" s="82"/>
-      <c r="AW42" s="82"/>
-      <c r="AX42" s="82"/>
-      <c r="AY42" s="83"/>
+      <c r="AV42" s="73"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="73"/>
+      <c r="AY42" s="74"/>
       <c r="AZ42" s="35"/>
       <c r="BA42" s="30"/>
       <c r="BB42" s="30"/>
@@ -4607,8 +4716,8 @@
       <c r="BG42" s="30"/>
     </row>
     <row r="43" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="77" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="75" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4644,14 +4753,14 @@
       <c r="W43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="79"/>
-      <c r="Z43" s="79"/>
-      <c r="AA43" s="79"/>
-      <c r="AB43" s="79"/>
-      <c r="AC43" s="79"/>
-      <c r="AD43" s="79"/>
-      <c r="AE43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="81"/>
+      <c r="AA43" s="81"/>
+      <c r="AB43" s="81"/>
+      <c r="AC43" s="81"/>
+      <c r="AD43" s="81"/>
+      <c r="AE43" s="82"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="20"/>
       <c r="AH43" s="20"/>
@@ -4676,10 +4785,10 @@
       <c r="AU43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AV43" s="82"/>
-      <c r="AW43" s="82"/>
-      <c r="AX43" s="82"/>
-      <c r="AY43" s="83"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="73"/>
+      <c r="AY43" s="74"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="30"/>
       <c r="BB43" s="30"/>
@@ -4690,77 +4799,77 @@
       <c r="BG43" s="30"/>
     </row>
     <row r="44" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="77"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="60" t="s">
+      <c r="O44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
-      <c r="S44" s="60" t="s">
+      <c r="S44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="T44" s="19"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-      <c r="W44" s="60" t="s">
+      <c r="W44" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="79"/>
-      <c r="Z44" s="79"/>
-      <c r="AA44" s="79"/>
-      <c r="AB44" s="79"/>
-      <c r="AC44" s="79"/>
-      <c r="AD44" s="79"/>
-      <c r="AE44" s="80"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="81"/>
+      <c r="AD44" s="81"/>
+      <c r="AE44" s="82"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
-      <c r="AI44" s="60" t="s">
+      <c r="AI44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="AJ44" s="19"/>
       <c r="AK44" s="20"/>
       <c r="AL44" s="20"/>
-      <c r="AM44" s="60" t="s">
+      <c r="AM44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="AN44" s="19"/>
       <c r="AO44" s="20"/>
       <c r="AP44" s="20"/>
-      <c r="AQ44" s="60" t="s">
+      <c r="AQ44" s="59" t="s">
         <v>27</v>
       </c>
       <c r="AR44" s="19"/>
       <c r="AS44" s="20"/>
       <c r="AT44" s="20"/>
-      <c r="AU44" s="60" t="s">
+      <c r="AU44" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AV44" s="82"/>
-      <c r="AW44" s="82"/>
-      <c r="AX44" s="82"/>
-      <c r="AY44" s="83"/>
+      <c r="AV44" s="73"/>
+      <c r="AW44" s="73"/>
+      <c r="AX44" s="73"/>
+      <c r="AY44" s="74"/>
       <c r="AZ44" s="35"/>
       <c r="BA44" s="30"/>
       <c r="BB44" s="30"/>
@@ -4771,8 +4880,8 @@
       <c r="BG44" s="30"/>
     </row>
     <row r="45" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="77" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="75" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -4808,14 +4917,14 @@
       <c r="W45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="79"/>
-      <c r="Z45" s="79"/>
-      <c r="AA45" s="79"/>
-      <c r="AB45" s="79"/>
-      <c r="AC45" s="79"/>
-      <c r="AD45" s="79"/>
-      <c r="AE45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="82"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="20"/>
       <c r="AH45" s="20"/>
@@ -4840,10 +4949,10 @@
       <c r="AU45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AV45" s="82"/>
-      <c r="AW45" s="82"/>
-      <c r="AX45" s="82"/>
-      <c r="AY45" s="83"/>
+      <c r="AV45" s="73"/>
+      <c r="AW45" s="73"/>
+      <c r="AX45" s="73"/>
+      <c r="AY45" s="74"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="30"/>
       <c r="BB45" s="30"/>
@@ -4854,77 +4963,77 @@
       <c r="BG45" s="30"/>
     </row>
     <row r="46" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="77"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="60" t="s">
+      <c r="K46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="60" t="s">
+      <c r="S46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="T46" s="19"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
-      <c r="W46" s="60" t="s">
+      <c r="W46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="81"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="82"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
-      <c r="AI46" s="60" t="s">
+      <c r="AI46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="AJ46" s="19"/>
       <c r="AK46" s="20"/>
       <c r="AL46" s="20"/>
-      <c r="AM46" s="60" t="s">
+      <c r="AM46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="AN46" s="19"/>
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
-      <c r="AQ46" s="60" t="s">
+      <c r="AQ46" s="59" t="s">
         <v>27</v>
       </c>
       <c r="AR46" s="19"/>
       <c r="AS46" s="20"/>
       <c r="AT46" s="20"/>
-      <c r="AU46" s="60" t="s">
+      <c r="AU46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="82"/>
-      <c r="AY46" s="83"/>
+      <c r="AV46" s="73"/>
+      <c r="AW46" s="73"/>
+      <c r="AX46" s="73"/>
+      <c r="AY46" s="74"/>
       <c r="AZ46" s="35"/>
       <c r="BA46" s="30"/>
       <c r="BB46" s="30"/>
@@ -5055,18 +5164,18 @@
     </row>
     <row r="49" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -5116,16 +5225,16 @@
     </row>
     <row r="50" spans="2:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -5175,20 +5284,20 @@
     </row>
     <row r="51" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="89" t="s">
+      <c r="E51" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="78"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -5238,20 +5347,20 @@
     </row>
     <row r="52" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="D52" s="67" t="s">
+      <c r="D52" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="86" t="s">
+      <c r="E52" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="88"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="72"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -5299,20 +5408,20 @@
     </row>
     <row r="53" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="D53" s="67" t="s">
+      <c r="D53" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="86" t="s">
+      <c r="E53" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="88"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="72"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -5360,20 +5469,20 @@
     </row>
     <row r="54" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="D54" s="67" t="s">
+      <c r="D54" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="86" t="s">
+      <c r="E54" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="88"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="72"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -5421,20 +5530,20 @@
     </row>
     <row r="55" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="D55" s="67" t="s">
+      <c r="D55" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="86" t="s">
+      <c r="E55" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="88"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="72"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -5482,20 +5591,20 @@
     </row>
     <row r="56" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="D56" s="67" t="s">
+      <c r="D56" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="86" t="s">
+      <c r="E56" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="88"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="72"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -5846,24 +5955,46 @@
       <c r="B74" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="E53:M53"/>
-    <mergeCell ref="E52:M52"/>
+  <mergeCells count="70">
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="E51:M51"/>
-    <mergeCell ref="D49:M50"/>
-    <mergeCell ref="E56:M56"/>
-    <mergeCell ref="E55:M55"/>
-    <mergeCell ref="AV7:AY46"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -5879,20 +6010,22 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D49:M50"/>
+    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="E55:M55"/>
+    <mergeCell ref="AV7:AY46"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E54:M54"/>
+    <mergeCell ref="E53:M53"/>
+    <mergeCell ref="E52:M52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5902,15 +6035,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010028133FD329801E458CCD26CAEC274AC7" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="951de766674a7b781fc0a2a3f1a523b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7a9366bb-544e-4fbf-98c6-865627896ea8" xmlns:ns4="99692989-243b-424a-8cea-8b1ef08e5de0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb7d36cb868d28059a7a39a6a28b72ca" ns3:_="" ns4:_="">
     <xsd:import namespace="7a9366bb-544e-4fbf-98c6-865627896ea8"/>
@@ -6139,6 +6263,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6148,14 +6281,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE327841-59DE-43CE-87E6-42A415587FEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34209EF8-FE73-4AD1-A04B-485A9BDBF6FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6170,6 +6295,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE327841-59DE-43CE-87E6-42A415587FEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/zeitplan_uek335.xlsx
+++ b/zeitplan_uek335.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\OneDrive\Dokumente\GitHub\uek335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B392E59-78F9-4D0D-A467-CC4A2CB71DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056DA19-8962-4F5C-871A-3874611174AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="0" windowWidth="19620" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="55">
   <si>
     <t>zeitplan</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>nachmitag</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -916,6 +919,60 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,60 +992,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1823,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,199 +1838,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:59" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="1:59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="91" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91" t="s">
+      <c r="S3" s="69"/>
+      <c r="T3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91" t="s">
+      <c r="U3" s="69"/>
+      <c r="V3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91" t="s">
+      <c r="W3" s="69"/>
+      <c r="X3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91" t="s">
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91" t="s">
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91" t="s">
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91" t="s">
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91" t="s">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91" t="s">
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91" t="s">
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91" t="s">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91" t="s">
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91" t="s">
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91" t="s">
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91" t="s">
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91" t="s">
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AY3" s="91"/>
+      <c r="AY3" s="69"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="87">
+      <c r="D4" s="75">
         <v>45068</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="87">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="75">
         <v>45069</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="87">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="75">
         <v>45070</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="75">
         <v>45071</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="88">
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="76">
         <v>45072</v>
       </c>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="87">
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="75">
         <v>45073</v>
       </c>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="87">
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="75">
         <v>45074</v>
       </c>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="87">
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="75">
         <v>45075</v>
       </c>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="88">
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="76">
         <v>45076</v>
       </c>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="87">
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="75">
         <v>45077</v>
       </c>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="75">
         <v>45078</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="84">
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="72">
         <v>45079</v>
       </c>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="86"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="74"/>
       <c r="AZ4" s="32"/>
       <c r="BA4" s="31"/>
       <c r="BB4" s="31"/>
@@ -2252,10 +2255,10 @@
       <c r="BG6" s="29"/>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2284,16 +2287,16 @@
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="80" t="s">
+      <c r="X7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="82"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="84"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="20"/>
       <c r="AH7" s="20"/>
@@ -2310,12 +2313,12 @@
       <c r="AS7" s="20"/>
       <c r="AT7" s="20"/>
       <c r="AU7" s="23"/>
-      <c r="AV7" s="73" t="s">
+      <c r="AV7" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="74"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="92"/>
       <c r="AZ7" s="35"/>
       <c r="BA7" s="30"/>
       <c r="BB7" s="30"/>
@@ -2326,8 +2329,8 @@
       <c r="BG7" s="30"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
@@ -2354,14 +2357,14 @@
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
@@ -2378,10 +2381,10 @@
       <c r="AS8" s="20"/>
       <c r="AT8" s="20"/>
       <c r="AU8" s="23"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="74"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="92"/>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="30"/>
       <c r="BB8" s="30"/>
@@ -2392,8 +2395,8 @@
       <c r="BG8" s="30"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2420,14 +2423,14 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="84"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
@@ -2444,10 +2447,10 @@
       <c r="AS9" s="20"/>
       <c r="AT9" s="20"/>
       <c r="AU9" s="23"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="74"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="92"/>
       <c r="AZ9" s="35"/>
       <c r="BA9" s="30"/>
       <c r="BB9" s="30"/>
@@ -2458,8 +2461,8 @@
       <c r="BG9" s="30"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2482,14 +2485,14 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
@@ -2506,10 +2509,10 @@
       <c r="AS10" s="20"/>
       <c r="AT10" s="20"/>
       <c r="AU10" s="23"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="74"/>
+      <c r="AV10" s="91"/>
+      <c r="AW10" s="91"/>
+      <c r="AX10" s="91"/>
+      <c r="AY10" s="92"/>
       <c r="AZ10" s="35"/>
       <c r="BA10" s="30"/>
       <c r="BB10" s="30"/>
@@ -2520,8 +2523,8 @@
       <c r="BG10" s="30"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -2546,14 +2549,14 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="20"/>
       <c r="AH11" s="20"/>
@@ -2570,10 +2573,10 @@
       <c r="AS11" s="20"/>
       <c r="AT11" s="20"/>
       <c r="AU11" s="23"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="74"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="91"/>
+      <c r="AX11" s="91"/>
+      <c r="AY11" s="92"/>
       <c r="AZ11" s="35"/>
       <c r="BA11" s="30"/>
       <c r="BB11" s="30"/>
@@ -2584,8 +2587,8 @@
       <c r="BG11" s="30"/>
     </row>
     <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="75"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
@@ -2609,14 +2612,14 @@
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="84"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
@@ -2633,10 +2636,10 @@
       <c r="AS12" s="20"/>
       <c r="AT12" s="20"/>
       <c r="AU12" s="23"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="74"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="92"/>
       <c r="AZ12" s="35"/>
       <c r="BA12" s="30"/>
       <c r="BB12" s="30"/>
@@ -2647,8 +2650,8 @@
       <c r="BG12" s="30"/>
     </row>
     <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2674,14 +2677,14 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="84"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="20"/>
       <c r="AH13" s="20"/>
@@ -2698,10 +2701,10 @@
       <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
       <c r="AU13" s="23"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="74"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="92"/>
       <c r="AZ13" s="35"/>
       <c r="BA13" s="30"/>
       <c r="BB13" s="30"/>
@@ -2712,8 +2715,8 @@
       <c r="BG13" s="30"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="23"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="68" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="20"/>
@@ -2739,14 +2742,14 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="84"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
@@ -2763,10 +2766,10 @@
       <c r="AS14" s="20"/>
       <c r="AT14" s="20"/>
       <c r="AU14" s="23"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="74"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="92"/>
       <c r="AZ14" s="35"/>
       <c r="BA14" s="30"/>
       <c r="BB14" s="30"/>
@@ -2799,14 +2802,14 @@
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="84"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
@@ -2823,10 +2826,10 @@
       <c r="AS15" s="25"/>
       <c r="AT15" s="24"/>
       <c r="AU15" s="25"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="74"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="92"/>
       <c r="AZ15" s="35"/>
       <c r="BA15" s="30"/>
       <c r="BB15" s="30"/>
@@ -2837,10 +2840,10 @@
       <c r="BG15" s="30"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2868,14 +2871,14 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="84"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="20"/>
       <c r="AH16" s="20"/>
@@ -2892,10 +2895,10 @@
       <c r="AS16" s="20"/>
       <c r="AT16" s="20"/>
       <c r="AU16" s="23"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="74"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="92"/>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="30"/>
       <c r="BB16" s="30"/>
@@ -2906,8 +2909,8 @@
       <c r="BG16" s="30"/>
     </row>
     <row r="17" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="17" t="s">
         <v>19</v>
       </c>
@@ -2917,8 +2920,12 @@
       <c r="G17" s="23"/>
       <c r="H17" s="19"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="23"/>
+      <c r="J17" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>54</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
@@ -2931,14 +2938,14 @@
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="84"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="20"/>
       <c r="AH17" s="20"/>
@@ -2955,10 +2962,10 @@
       <c r="AS17" s="20"/>
       <c r="AT17" s="20"/>
       <c r="AU17" s="23"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="74"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="92"/>
       <c r="AZ17" s="35"/>
       <c r="BA17" s="30"/>
       <c r="BB17" s="30"/>
@@ -2969,8 +2976,8 @@
       <c r="BG17" s="30"/>
     </row>
     <row r="18" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="71" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -3000,14 +3007,14 @@
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="84"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
@@ -3024,10 +3031,10 @@
       <c r="AS18" s="20"/>
       <c r="AT18" s="20"/>
       <c r="AU18" s="23"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="74"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="92"/>
       <c r="AZ18" s="35"/>
       <c r="BA18" s="30"/>
       <c r="BB18" s="30"/>
@@ -3038,8 +3045,8 @@
       <c r="BG18" s="30"/>
     </row>
     <row r="19" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
@@ -3063,14 +3070,14 @@
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="84"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="20"/>
       <c r="AH19" s="20"/>
@@ -3087,10 +3094,10 @@
       <c r="AS19" s="20"/>
       <c r="AT19" s="20"/>
       <c r="AU19" s="23"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="74"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="92"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="30"/>
       <c r="BB19" s="30"/>
@@ -3101,8 +3108,8 @@
       <c r="BG19" s="30"/>
     </row>
     <row r="20" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="71" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -3132,14 +3139,14 @@
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
@@ -3156,10 +3163,10 @@
       <c r="AS20" s="20"/>
       <c r="AT20" s="20"/>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="74"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="92"/>
       <c r="AZ20" s="35"/>
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
@@ -3170,8 +3177,8 @@
       <c r="BG20" s="30"/>
     </row>
     <row r="21" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
@@ -3195,14 +3202,14 @@
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="84"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
@@ -3219,10 +3226,10 @@
       <c r="AS21" s="20"/>
       <c r="AT21" s="20"/>
       <c r="AU21" s="23"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="74"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="92"/>
       <c r="AZ21" s="35"/>
       <c r="BA21" s="30"/>
       <c r="BB21" s="30"/>
@@ -3233,8 +3240,8 @@
       <c r="BG21" s="30"/>
     </row>
     <row r="22" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -3264,14 +3271,14 @@
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="84"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
@@ -3288,10 +3295,10 @@
       <c r="AS22" s="20"/>
       <c r="AT22" s="20"/>
       <c r="AU22" s="23"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="74"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="92"/>
       <c r="AZ22" s="35"/>
       <c r="BA22" s="30"/>
       <c r="BB22" s="30"/>
@@ -3302,8 +3309,8 @@
       <c r="BG22" s="30"/>
     </row>
     <row r="23" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="17" t="s">
         <v>19</v>
       </c>
@@ -3327,14 +3334,14 @@
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="84"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="20"/>
       <c r="AH23" s="20"/>
@@ -3351,10 +3358,10 @@
       <c r="AS23" s="20"/>
       <c r="AT23" s="20"/>
       <c r="AU23" s="23"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="74"/>
+      <c r="AV23" s="91"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="91"/>
+      <c r="AY23" s="92"/>
       <c r="AZ23" s="35"/>
       <c r="BA23" s="30"/>
       <c r="BB23" s="30"/>
@@ -3365,8 +3372,8 @@
       <c r="BG23" s="30"/>
     </row>
     <row r="24" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="75" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -3396,14 +3403,14 @@
       <c r="S24" s="22">
         <v>4</v>
       </c>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="84"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
@@ -3420,10 +3427,10 @@
       <c r="AS24" s="20"/>
       <c r="AT24" s="20"/>
       <c r="AU24" s="23"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="74"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="92"/>
       <c r="AZ24" s="35"/>
       <c r="BA24" s="30"/>
       <c r="BB24" s="30"/>
@@ -3434,8 +3441,8 @@
       <c r="BG24" s="30"/>
     </row>
     <row r="25" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="17" t="s">
         <v>19</v>
       </c>
@@ -3456,14 +3463,14 @@
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
       <c r="T25" s="62"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="84"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
@@ -3480,10 +3487,10 @@
       <c r="AS25" s="20"/>
       <c r="AT25" s="20"/>
       <c r="AU25" s="23"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="74"/>
+      <c r="AV25" s="91"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="92"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="30"/>
       <c r="BB25" s="30"/>
@@ -3516,14 +3523,14 @@
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="84"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
@@ -3540,10 +3547,10 @@
       <c r="AS26" s="25"/>
       <c r="AT26" s="25"/>
       <c r="AU26" s="25"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="74"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="92"/>
       <c r="AZ26" s="35"/>
       <c r="BA26" s="30"/>
       <c r="BB26" s="30"/>
@@ -3554,10 +3561,10 @@
       <c r="BG26" s="30"/>
     </row>
     <row r="27" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -3591,14 +3598,14 @@
       <c r="W27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="84"/>
       <c r="AF27" s="44" t="s">
         <v>30</v>
       </c>
@@ -3643,10 +3650,10 @@
       </c>
       <c r="AT27" s="20"/>
       <c r="AU27" s="23"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="74"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="92"/>
       <c r="AZ27" s="35"/>
       <c r="BA27" s="30"/>
       <c r="BB27" s="30"/>
@@ -3657,8 +3664,8 @@
       <c r="BG27" s="30"/>
     </row>
     <row r="28" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="17" t="s">
         <v>19</v>
       </c>
@@ -3682,14 +3689,14 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
       <c r="W28" s="23"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="84"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
@@ -3706,10 +3713,10 @@
       <c r="AS28" s="20"/>
       <c r="AT28" s="20"/>
       <c r="AU28" s="23"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="74"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="92"/>
       <c r="AZ28" s="35"/>
       <c r="BA28" s="30"/>
       <c r="BB28" s="30"/>
@@ -3720,8 +3727,8 @@
       <c r="BG28" s="30"/>
     </row>
     <row r="29" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -3755,14 +3762,14 @@
       <c r="W29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="84"/>
       <c r="AF29" s="63" t="s">
         <v>26</v>
       </c>
@@ -3807,10 +3814,10 @@
       </c>
       <c r="AT29" s="20"/>
       <c r="AU29" s="23"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="74"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="92"/>
       <c r="AZ29" s="35"/>
       <c r="BA29" s="30"/>
       <c r="BB29" s="30"/>
@@ -3821,8 +3828,8 @@
       <c r="BG29" s="30"/>
     </row>
     <row r="30" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="17" t="s">
         <v>19</v>
       </c>
@@ -3846,14 +3853,14 @@
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
       <c r="W30" s="23"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="83"/>
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
@@ -3870,10 +3877,10 @@
       <c r="AS30" s="20"/>
       <c r="AT30" s="20"/>
       <c r="AU30" s="23"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="73"/>
-      <c r="AX30" s="73"/>
-      <c r="AY30" s="74"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="92"/>
       <c r="AZ30" s="35"/>
       <c r="BA30" s="30"/>
       <c r="BB30" s="30"/>
@@ -3884,8 +3891,8 @@
       <c r="BG30" s="30"/>
     </row>
     <row r="31" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="71" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -3919,14 +3926,14 @@
       <c r="W31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="83"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="84"/>
       <c r="AF31" s="27" t="s">
         <v>26</v>
       </c>
@@ -3971,10 +3978,10 @@
       </c>
       <c r="AT31" s="20"/>
       <c r="AU31" s="23"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="74"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="92"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="30"/>
       <c r="BB31" s="30"/>
@@ -3985,8 +3992,8 @@
       <c r="BG31" s="30"/>
     </row>
     <row r="32" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="75"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="17" t="s">
         <v>19</v>
       </c>
@@ -4010,14 +4017,14 @@
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
       <c r="W32" s="23"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="84"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
@@ -4034,10 +4041,10 @@
       <c r="AS32" s="20"/>
       <c r="AT32" s="20"/>
       <c r="AU32" s="23"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="74"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="92"/>
       <c r="AZ32" s="35"/>
       <c r="BA32" s="30"/>
       <c r="BB32" s="30"/>
@@ -4070,14 +4077,14 @@
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="83"/>
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="84"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="25"/>
       <c r="AH33" s="25"/>
@@ -4094,10 +4101,10 @@
       <c r="AS33" s="25"/>
       <c r="AT33" s="25"/>
       <c r="AU33" s="25"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="74"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="91"/>
+      <c r="AY33" s="92"/>
       <c r="AZ33" s="35"/>
       <c r="BA33" s="30"/>
       <c r="BB33" s="30"/>
@@ -4108,10 +4115,10 @@
       <c r="BG33" s="30"/>
     </row>
     <row r="34" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="17"/>
@@ -4135,14 +4142,14 @@
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="84"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="20"/>
       <c r="AH34" s="20"/>
@@ -4161,10 +4168,10 @@
         <v>28</v>
       </c>
       <c r="AU34" s="23"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="74"/>
+      <c r="AV34" s="91"/>
+      <c r="AW34" s="91"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="92"/>
       <c r="AZ34" s="35"/>
       <c r="BA34" s="30"/>
       <c r="BB34" s="30"/>
@@ -4175,8 +4182,8 @@
       <c r="BG34" s="30"/>
     </row>
     <row r="35" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
@@ -4198,14 +4205,14 @@
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="84"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="20"/>
       <c r="AH35" s="20"/>
@@ -4222,10 +4229,10 @@
       <c r="AS35" s="20"/>
       <c r="AT35" s="20"/>
       <c r="AU35" s="23"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="74"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91"/>
+      <c r="AX35" s="91"/>
+      <c r="AY35" s="92"/>
       <c r="AZ35" s="35"/>
       <c r="BA35" s="30"/>
       <c r="BB35" s="30"/>
@@ -4236,8 +4243,8 @@
       <c r="BG35" s="30"/>
     </row>
     <row r="36" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="71" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="17"/>
@@ -4261,14 +4268,14 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="80"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="83"/>
+      <c r="AB36" s="83"/>
+      <c r="AC36" s="83"/>
+      <c r="AD36" s="83"/>
+      <c r="AE36" s="84"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
@@ -4287,10 +4294,10 @@
       <c r="AU36" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="73"/>
-      <c r="AX36" s="73"/>
-      <c r="AY36" s="74"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="92"/>
       <c r="AZ36" s="35"/>
       <c r="BA36" s="30"/>
       <c r="BB36" s="30"/>
@@ -4301,8 +4308,8 @@
       <c r="BG36" s="30"/>
     </row>
     <row r="37" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
@@ -4324,14 +4331,14 @@
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="80"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="84"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="20"/>
       <c r="AH37" s="20"/>
@@ -4348,10 +4355,10 @@
       <c r="AS37" s="20"/>
       <c r="AT37" s="20"/>
       <c r="AU37" s="23"/>
-      <c r="AV37" s="73"/>
-      <c r="AW37" s="73"/>
-      <c r="AX37" s="73"/>
-      <c r="AY37" s="74"/>
+      <c r="AV37" s="91"/>
+      <c r="AW37" s="91"/>
+      <c r="AX37" s="91"/>
+      <c r="AY37" s="92"/>
       <c r="AZ37" s="35"/>
       <c r="BA37" s="30"/>
       <c r="BB37" s="30"/>
@@ -4362,8 +4369,8 @@
       <c r="BG37" s="30"/>
     </row>
     <row r="38" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="85"/>
+      <c r="B38" s="71" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="17"/>
@@ -4387,14 +4394,14 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="81"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="81"/>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="83"/>
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="83"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="83"/>
+      <c r="AE38" s="84"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="20"/>
@@ -4415,10 +4422,10 @@
       <c r="AU38" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="73"/>
-      <c r="AX38" s="73"/>
-      <c r="AY38" s="74"/>
+      <c r="AV38" s="91"/>
+      <c r="AW38" s="91"/>
+      <c r="AX38" s="91"/>
+      <c r="AY38" s="92"/>
       <c r="AZ38" s="35"/>
       <c r="BA38" s="30"/>
       <c r="BB38" s="30"/>
@@ -4429,8 +4436,8 @@
       <c r="BG38" s="30"/>
     </row>
     <row r="39" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
@@ -4452,14 +4459,14 @@
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="81"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="83"/>
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="84"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
@@ -4476,10 +4483,10 @@
       <c r="AS39" s="20"/>
       <c r="AT39" s="20"/>
       <c r="AU39" s="23"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="73"/>
-      <c r="AY39" s="74"/>
+      <c r="AV39" s="91"/>
+      <c r="AW39" s="91"/>
+      <c r="AX39" s="91"/>
+      <c r="AY39" s="92"/>
       <c r="AZ39" s="35"/>
       <c r="BA39" s="30"/>
       <c r="BB39" s="30"/>
@@ -4512,14 +4519,14 @@
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
       <c r="W40" s="25"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="81"/>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="81"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="82"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="84"/>
       <c r="AF40" s="24"/>
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
@@ -4536,10 +4543,10 @@
       <c r="AS40" s="25"/>
       <c r="AT40" s="25"/>
       <c r="AU40" s="25"/>
-      <c r="AV40" s="73"/>
-      <c r="AW40" s="73"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="74"/>
+      <c r="AV40" s="91"/>
+      <c r="AW40" s="91"/>
+      <c r="AX40" s="91"/>
+      <c r="AY40" s="92"/>
       <c r="AZ40" s="35"/>
       <c r="BA40" s="30"/>
       <c r="BB40" s="30"/>
@@ -4550,10 +4557,10 @@
       <c r="BG40" s="30"/>
     </row>
     <row r="41" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -4589,14 +4596,14 @@
       <c r="W41" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="81"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81"/>
-      <c r="AE41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="84"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="20"/>
       <c r="AH41" s="20"/>
@@ -4621,10 +4628,10 @@
       <c r="AU41" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AV41" s="73"/>
-      <c r="AW41" s="73"/>
-      <c r="AX41" s="73"/>
-      <c r="AY41" s="74"/>
+      <c r="AV41" s="91"/>
+      <c r="AW41" s="91"/>
+      <c r="AX41" s="91"/>
+      <c r="AY41" s="92"/>
       <c r="AZ41" s="35"/>
       <c r="BA41" s="30"/>
       <c r="BB41" s="30"/>
@@ -4635,8 +4642,8 @@
       <c r="BG41" s="30"/>
     </row>
     <row r="42" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="75"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="17" t="s">
         <v>19</v>
       </c>
@@ -4670,14 +4677,14 @@
       <c r="W42" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="81"/>
-      <c r="Z42" s="81"/>
-      <c r="AA42" s="81"/>
-      <c r="AB42" s="81"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="83"/>
+      <c r="Z42" s="83"/>
+      <c r="AA42" s="83"/>
+      <c r="AB42" s="83"/>
+      <c r="AC42" s="83"/>
+      <c r="AD42" s="83"/>
+      <c r="AE42" s="84"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
@@ -4702,10 +4709,10 @@
       <c r="AU42" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="AV42" s="73"/>
-      <c r="AW42" s="73"/>
-      <c r="AX42" s="73"/>
-      <c r="AY42" s="74"/>
+      <c r="AV42" s="91"/>
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="91"/>
+      <c r="AY42" s="92"/>
       <c r="AZ42" s="35"/>
       <c r="BA42" s="30"/>
       <c r="BB42" s="30"/>
@@ -4716,8 +4723,8 @@
       <c r="BG42" s="30"/>
     </row>
     <row r="43" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="75" t="s">
+      <c r="A43" s="85"/>
+      <c r="B43" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4753,14 +4760,14 @@
       <c r="W43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="81"/>
-      <c r="AA43" s="81"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="83"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="84"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="20"/>
       <c r="AH43" s="20"/>
@@ -4785,10 +4792,10 @@
       <c r="AU43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AV43" s="73"/>
-      <c r="AW43" s="73"/>
-      <c r="AX43" s="73"/>
-      <c r="AY43" s="74"/>
+      <c r="AV43" s="91"/>
+      <c r="AW43" s="91"/>
+      <c r="AX43" s="91"/>
+      <c r="AY43" s="92"/>
       <c r="AZ43" s="35"/>
       <c r="BA43" s="30"/>
       <c r="BB43" s="30"/>
@@ -4799,8 +4806,8 @@
       <c r="BG43" s="30"/>
     </row>
     <row r="44" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="75"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="17" t="s">
         <v>19</v>
       </c>
@@ -4834,14 +4841,14 @@
       <c r="W44" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="81"/>
-      <c r="Z44" s="81"/>
-      <c r="AA44" s="81"/>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="81"/>
-      <c r="AD44" s="81"/>
-      <c r="AE44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="83"/>
+      <c r="Z44" s="83"/>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="83"/>
+      <c r="AC44" s="83"/>
+      <c r="AD44" s="83"/>
+      <c r="AE44" s="84"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
@@ -4866,10 +4873,10 @@
       <c r="AU44" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AV44" s="73"/>
-      <c r="AW44" s="73"/>
-      <c r="AX44" s="73"/>
-      <c r="AY44" s="74"/>
+      <c r="AV44" s="91"/>
+      <c r="AW44" s="91"/>
+      <c r="AX44" s="91"/>
+      <c r="AY44" s="92"/>
       <c r="AZ44" s="35"/>
       <c r="BA44" s="30"/>
       <c r="BB44" s="30"/>
@@ -4880,8 +4887,8 @@
       <c r="BG44" s="30"/>
     </row>
     <row r="45" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="75" t="s">
+      <c r="A45" s="85"/>
+      <c r="B45" s="71" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -4917,14 +4924,14 @@
       <c r="W45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="83"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="84"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="20"/>
       <c r="AH45" s="20"/>
@@ -4949,10 +4956,10 @@
       <c r="AU45" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AV45" s="73"/>
-      <c r="AW45" s="73"/>
-      <c r="AX45" s="73"/>
-      <c r="AY45" s="74"/>
+      <c r="AV45" s="91"/>
+      <c r="AW45" s="91"/>
+      <c r="AX45" s="91"/>
+      <c r="AY45" s="92"/>
       <c r="AZ45" s="35"/>
       <c r="BA45" s="30"/>
       <c r="BB45" s="30"/>
@@ -4963,8 +4970,8 @@
       <c r="BG45" s="30"/>
     </row>
     <row r="46" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="75"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="71"/>
       <c r="C46" s="17" t="s">
         <v>19</v>
       </c>
@@ -4998,14 +5005,14 @@
       <c r="W46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="83"/>
+      <c r="Z46" s="83"/>
+      <c r="AA46" s="83"/>
+      <c r="AB46" s="83"/>
+      <c r="AC46" s="83"/>
+      <c r="AD46" s="83"/>
+      <c r="AE46" s="84"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
@@ -5030,10 +5037,10 @@
       <c r="AU46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AV46" s="73"/>
-      <c r="AW46" s="73"/>
-      <c r="AX46" s="73"/>
-      <c r="AY46" s="74"/>
+      <c r="AV46" s="91"/>
+      <c r="AW46" s="91"/>
+      <c r="AX46" s="91"/>
+      <c r="AY46" s="92"/>
       <c r="AZ46" s="35"/>
       <c r="BA46" s="30"/>
       <c r="BB46" s="30"/>
@@ -5164,18 +5171,18 @@
     </row>
     <row r="49" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -5225,16 +5232,16 @@
     </row>
     <row r="50" spans="2:59" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -5287,17 +5294,17 @@
       <c r="D51" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="78"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="80"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -5350,17 +5357,17 @@
       <c r="D52" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="72"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="90"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -5411,17 +5418,17 @@
       <c r="D53" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="72"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="90"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -5472,17 +5479,17 @@
       <c r="D54" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="70" t="s">
+      <c r="E54" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="90"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -5533,17 +5540,17 @@
       <c r="D55" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="72"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="90"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -5594,17 +5601,17 @@
       <c r="D56" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="72"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="90"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -5956,44 +5963,22 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="D49:M50"/>
+    <mergeCell ref="E56:M56"/>
+    <mergeCell ref="E55:M55"/>
+    <mergeCell ref="AV7:AY46"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E54:M54"/>
+    <mergeCell ref="E53:M53"/>
+    <mergeCell ref="E52:M52"/>
     <mergeCell ref="E51:M51"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="B27:B28"/>
@@ -6010,22 +5995,44 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D49:M50"/>
-    <mergeCell ref="E56:M56"/>
-    <mergeCell ref="E55:M55"/>
-    <mergeCell ref="AV7:AY46"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="E53:M53"/>
-    <mergeCell ref="E52:M52"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6035,6 +6042,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010028133FD329801E458CCD26CAEC274AC7" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="951de766674a7b781fc0a2a3f1a523b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7a9366bb-544e-4fbf-98c6-865627896ea8" xmlns:ns4="99692989-243b-424a-8cea-8b1ef08e5de0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb7d36cb868d28059a7a39a6a28b72ca" ns3:_="" ns4:_="">
     <xsd:import namespace="7a9366bb-544e-4fbf-98c6-865627896ea8"/>
@@ -6263,15 +6279,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6281,6 +6288,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE327841-59DE-43CE-87E6-42A415587FEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34209EF8-FE73-4AD1-A04B-485A9BDBF6FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6295,14 +6310,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE327841-59DE-43CE-87E6-42A415587FEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
